--- a/hysteresis/data/Excr.xlsx
+++ b/hysteresis/data/Excr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hyst_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/hysteresis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E26F6F-76A1-4473-8D06-B35605032841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91064AD7-D407-184D-94DF-EBBBDC5286C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC627EC6-59A4-4CCD-B808-57FED5DE7605}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{CC627EC6-59A4-4CCD-B808-57FED5DE7605}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>波形観測</t>
     <rPh sb="0" eb="4">
@@ -59,6 +62,43 @@
     <t>電流i_0[A]</t>
     <rPh sb="0" eb="2">
       <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力電圧</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">デンアツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ内面積</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">メンセキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定損失</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソクテイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ソンシツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算損失</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイサン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ソンシツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,7 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +150,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9248ED-C9F5-4207-B8AB-861EC8087AC2}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -446,8 +496,20 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>75</v>
       </c>
@@ -462,8 +524,25 @@
         <f>(180*ACOS(D3/(C3*B3)))/PI()</f>
         <v>85.416427081574867</v>
       </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>5.61</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="L3" s="2">
+        <f>50*3.84*0.0001*0.122*352.46*0.43*J3</f>
+        <v>1.9916004379392001</v>
+      </c>
+      <c r="M3" s="2">
+        <f>K3-L3</f>
+        <v>0.10839956206080004</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13">
       <c r="B4">
         <f>B3+5</f>
         <v>80</v>
@@ -482,8 +561,25 @@
       <c r="F4" t="s">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="L4" s="2">
+        <f>50*3.84*0.0001*0.122*352.46*0.43*J4</f>
+        <v>2.8755728248319996</v>
+      </c>
+      <c r="M4" s="2">
+        <f>K4-L4</f>
+        <v>0.46442717516800025</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13">
       <c r="B5">
         <f t="shared" ref="B5:B7" si="1">B4+5</f>
         <v>85</v>
@@ -500,7 +596,7 @@
         <v>85.787739730623102</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13">
       <c r="B6">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -517,7 +613,7 @@
         <v>86.079280724510184</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13">
       <c r="B7">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -534,7 +630,7 @@
         <v>86.301332578350923</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13">
       <c r="B8">
         <f>B7+5</f>
         <v>100</v>
